--- a/하나마트/하나마트-테이블명세(2021-05-06).xlsx
+++ b/하나마트/하나마트-테이블명세(2021-05-06).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="매입매출장" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>DEFAULT'Y'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL형식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1133,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1803,7 +1807,7 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="27">
-        <v>44322</v>
+        <v>44347</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
@@ -1864,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -2236,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:H10"/>
     </sheetView>
   </sheetViews>
@@ -3276,12 +3280,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4341,12 +4345,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
